--- a/casestudy/fast-glob-223/results.xlsx
+++ b/casestudy/fast-glob-223/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/fast-glob-223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4D8AB-F02B-C349-A22A-6A56D4D48C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B146D5CE-AB4E-314D-BC34-0154135266B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1029,8 +1029,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="B8 C8"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="1" sqref="B17 C17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F4CE5-1A94-D544-828F-3756B1B1292E}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="1" sqref="B15 C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="372" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="356" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="340" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2061,9 +2062,6 @@
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2074,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8478CE-4E42-ED49-86FC-D0F1E49FB7E9}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="1" sqref="B17 C17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
